--- a/biology/Botanique/Arboretum_Gaston-Allard/Arboretum_Gaston-Allard.xlsx
+++ b/biology/Botanique/Arboretum_Gaston-Allard/Arboretum_Gaston-Allard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'arboretum Gaston Allard, appelé également l'arboretum d'Angers, est un jardin botanique situé au sud de la ville d'Angers dans le quartier de la Roseraie. L'arboretum valorise le patrimoine horticole de la région. Sont mis en valeur la botanique, l'horticulture, l'écologie et l'art des jardins. 
@@ -512,12 +524,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été créé par le botaniste angevin Gaston Allard, qui démarra les plantations, en 1863, dans la vaste propriété familiale de la closerie de la Maulévrie. Il élabora ce jardin autour de sa demeure, dans laquelle est logé. La maison de Gaston Allard abrite actuellement le siège du département botanique du muséum des Sciences Naturelles d'Angers.
 En 1980, fut aménagé un espace particulier pour héberger la collection nationale d'hortensias riche de 750 plants ou taxons.
 Depuis 2001, l'arboretum accueille des œuvres artistiques du sculpteur angevin François Cacheux.
-Entre 1999 et 2004, la ville d'Angers a créé trois jardins, le jardin des Ombrages, le jardin des Essais et le jardin des cinq sens. Puis, en 2008, un quatrième jardin nommé Le jardin des biotopes, qui sur 1 250 m2, présente différents milieux et biotopes de la région[1].
+Entre 1999 et 2004, la ville d'Angers a créé trois jardins, le jardin des Ombrages, le jardin des Essais et le jardin des cinq sens. Puis, en 2008, un quatrième jardin nommé Le jardin des biotopes, qui sur 1 250 m2, présente différents milieux et biotopes de la région.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il présente de nombreuses espèces d'arbres ou d'essences sur un espace de sept hectares. Parmi les 20 000 plantes présentées, le public accède à l'arboretum par une allée bordée de chênes. Plus loin sont présentés des conifères. Un fruticetum comprenant des arbustes, des plantes grimpantes, des plantes vivaces, des plantes annuelles et d'autres bulbeuses. 
 Le public parcourt l'arboretum à travers trois thèmes : le jardin des Ombrages (2 000 m2), le jardin des Essais (4 000 m2) le jardin des cinq Sens (1 200 m2) et le jardin des Biotopes (1 200 m2).
